--- a/data/hotels_by_city/Houston/Houston_shard_21.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="605">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55643-d268282-Reviews-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
   </si>
   <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Lake-Jackson-Hotels-Baymont-By-Wyndham-Clute.h913180.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1696 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r601472365-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>55643</t>
+  </si>
+  <si>
+    <t>268282</t>
+  </si>
+  <si>
+    <t>601472365</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Perfect for us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For this trip, proximity to the beach was not a priority. This property is centrally located to restaurants, businesses and recreational areas. Hot breakfast. Friendly staff. Clean rooms. Cold air conditioner. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r595249551-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>595249551</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Beach getaway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you book online and the server says it is down, do not try to book again. Apparently, the reservation still goes through and you will end up with 2 rooms instead of 1. The room looked clean but when we walked in, we did see a small roach on the end of the bed, which was killed immediately. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r588160036-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>588160036</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Don't have any complaints!</t>
+  </si>
+  <si>
+    <t>The room was really nice! A/C worked great all appliances worked great! Bathroom was clean. The bedroom area was very clean! I'll definitely stay there again! Also I liked that its close to everything like stores, gas stations ,restaurants!!!</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r565291992-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>565291992</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Not to bad</t>
+  </si>
+  <si>
+    <t>Good location, friendly staff, only problem was they were putting new carpet down in the hall way.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Emilie W, Manager at Baymont by Wyndham Clute, responded to this reviewResponded March 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2018</t>
+  </si>
+  <si>
+    <t>Good location, friendly staff, only problem was they were putting new carpet down in the hall way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r554606767-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>554606767</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>Don't expect much</t>
+  </si>
+  <si>
+    <t>I'll refrain from being rude, but it is not a nice place. Very dingy inside. The room itself was almost decent but if you're picky in the slightest, you will not want to stay the night. We stayed here because there were literally no other openings in the rest of the town. It's very affordable but you get what you pay for. The first night I felt like I was crawling with invisible bugs. Upon inspection we found lots of small hairs and little black dots on the sheets (didn't seem to be bugs, but sure felt like it). We had them change the sheets the next day and it somewhat improved. I still felt crawly the whole time. I woke up one day with two bites on my arm that I've concluded are from a spider. It's over a week later and they haven't healed. I witnessed a medium sized roach run across the vanity in the bathroom. We bought flip flops to wear in the shower. The staff was pleasant, Jackie was very sweet. But overall just very, very outdated and not a great environment to relax in after a long day's work.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>I'll refrain from being rude, but it is not a nice place. Very dingy inside. The room itself was almost decent but if you're picky in the slightest, you will not want to stay the night. We stayed here because there were literally no other openings in the rest of the town. It's very affordable but you get what you pay for. The first night I felt like I was crawling with invisible bugs. Upon inspection we found lots of small hairs and little black dots on the sheets (didn't seem to be bugs, but sure felt like it). We had them change the sheets the next day and it somewhat improved. I still felt crawly the whole time. I woke up one day with two bites on my arm that I've concluded are from a spider. It's over a week later and they haven't healed. I witnessed a medium sized roach run across the vanity in the bathroom. We bought flip flops to wear in the shower. The staff was pleasant, Jackie was very sweet. But overall just very, very outdated and not a great environment to relax in after a long day's work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r548112770-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>548112770</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>MY GREAT TIME AT Baymont Inn&amp;Suites</t>
+  </si>
+  <si>
+    <t>My great stay at Baymont HotelI enjoy my stay every time I stay there.The staff nice, friendly, and very helpful. Greet you with a smile</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r543619498-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>543619498</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>My stay at Baymont Inn at Clute, TX</t>
+  </si>
+  <si>
+    <t>This hotel was excellent in all ways. When I asked about rates for New Years, I was told that unlike other hotels in the area that their rates would not go up just because it was New Years. This impressed me very much. Some of the other hotels in the area raise their rates for New Years by as much as $50 per night and I find this very offensive, especially since this city is not a resort city or a huge college city. It is just the location of Dow Chemical which is nearby.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r542168637-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>542168637</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r538601051-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>538601051</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Reservations and breakfast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservations have Ben screwed up every time I booked here. Always something missing at breakfast. Plates, orange Juice, coffee. Always something. 4x over the past 2 months. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r535134104-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>535134104</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Getaway</t>
+  </si>
+  <si>
+    <t>Only complaint I have beds are very firmAnd hard to sleep on for me. Everything else was very good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r531349588-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>531349588</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Something was out every breakfast. Orange juice. Plates...</t>
+  </si>
+  <si>
+    <t>Something was out every breakfast. Orange juice. Plates. Forks. Only one track can in the apartment. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>CHELSEA M, Manager at Baymont by Wyndham Clute, responded to this reviewResponded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Something was out every breakfast. Orange juice. Plates. Forks. Only one track can in the apartment. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r530657469-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>530657469</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>I like staying at the Baymont. Over any other hotel. The...</t>
+  </si>
+  <si>
+    <t>I like staying at the Baymont. Over any other hotel. The only minor ishue I had. Was the a.c. wouldn't stay on. And at times got hot and I'd have to restart it. Other than that all was good. MoreShow less</t>
+  </si>
+  <si>
+    <t>I like staying at the Baymont. Over any other hotel. The only minor ishue I had. Was the a.c. wouldn't stay on. And at times got hot and I'd have to restart it. Other than that all was good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r516793706-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>516793706</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Horrible Experience</t>
+  </si>
+  <si>
+    <t>I had one of my workers stayed at the hotel for business. There were roaches in his room including the bed. He went and informed the front desk and was told he could move to the new section that had just been remodeled. He opens the door and roaches scatter. We moved him to another hotel.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r514362530-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>514362530</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Halls crowded with construction, booked a 1st floor nonsmoking got a 3rd floor smoking. Noisy, roaches in room, washer, ice machine and WiFi not working. No concern from manager when informed of concerns. Not informed at check in of construction. MoreShow less</t>
+  </si>
+  <si>
+    <t>CHELSEA M, Manager at Baymont by Wyndham Clute, responded to this reviewResponded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Halls crowded with construction, booked a 1st floor nonsmoking got a 3rd floor smoking. Noisy, roaches in room, washer, ice machine and WiFi not working. No concern from manager when informed of concerns. Not informed at check in of construction. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r514357225-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>514357225</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r499795656-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>499795656</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>Worst hotel I have ever been to. They overbook for rooms they do not have. They overbook and put you in rooms that are torn up with holes in the walls and leaking floors. Then they want to charge you regular price for a room that should not even be presented to guest. Walls patched up with no paint. The staff is nice but what does that do when the rooms are disgusting.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r496525828-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>496525828</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>This rating is not low enough</t>
+  </si>
+  <si>
+    <t>This is the WORST hotel I have stayed at. I was a travel nurse, so I have stayed at plenty. The only thing that could have been worst was roaches, and of course that what was crawling up the walls the last day. Upon check-in, the room had not been cleaned. There were toenail clippings on the floor. We were promptly moved to another room that they cleaned immediately prior to our being in there. Then there was the pool. It was green and scummy. I called the corporate office and notified of conditions. I was informed the manager would handle all of these things and be in touch with me at the hotel. That did not happen. The pool did not get cleaned until the third day of our four day stay. On the last day, the fire alarm went off at 6:46am and the left side of the hotel was flooded from the broken sprinkler system. We were out of the room and car packed by 7:30am. The manager still had not arrived at the building, none of the staff knew what to do with the alarm or to inform anyone what was going on. I knew because the break was right outside my room in the hallway and my room was flooded immediately. When I left, the fire marshall was in the lobby telling the assistant manager that if the manager did not show immediately to do...This is the WORST hotel I have stayed at. I was a travel nurse, so I have stayed at plenty. The only thing that could have been worst was roaches, and of course that what was crawling up the walls the last day. Upon check-in, the room had not been cleaned. There were toenail clippings on the floor. We were promptly moved to another room that they cleaned immediately prior to our being in there. Then there was the pool. It was green and scummy. I called the corporate office and notified of conditions. I was informed the manager would handle all of these things and be in touch with me at the hotel. That did not happen. The pool did not get cleaned until the third day of our four day stay. On the last day, the fire alarm went off at 6:46am and the left side of the hotel was flooded from the broken sprinkler system. We were out of the room and car packed by 7:30am. The manager still had not arrived at the building, none of the staff knew what to do with the alarm or to inform anyone what was going on. I knew because the break was right outside my room in the hallway and my room was flooded immediately. When I left, the fire marshall was in the lobby telling the assistant manager that if the manager did not show immediately to do something he was shutting the building down.  Also, the yogurt for breakfast was over a week expired. We did not eat breakfast there.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the WORST hotel I have stayed at. I was a travel nurse, so I have stayed at plenty. The only thing that could have been worst was roaches, and of course that what was crawling up the walls the last day. Upon check-in, the room had not been cleaned. There were toenail clippings on the floor. We were promptly moved to another room that they cleaned immediately prior to our being in there. Then there was the pool. It was green and scummy. I called the corporate office and notified of conditions. I was informed the manager would handle all of these things and be in touch with me at the hotel. That did not happen. The pool did not get cleaned until the third day of our four day stay. On the last day, the fire alarm went off at 6:46am and the left side of the hotel was flooded from the broken sprinkler system. We were out of the room and car packed by 7:30am. The manager still had not arrived at the building, none of the staff knew what to do with the alarm or to inform anyone what was going on. I knew because the break was right outside my room in the hallway and my room was flooded immediately. When I left, the fire marshall was in the lobby telling the assistant manager that if the manager did not show immediately to do...This is the WORST hotel I have stayed at. I was a travel nurse, so I have stayed at plenty. The only thing that could have been worst was roaches, and of course that what was crawling up the walls the last day. Upon check-in, the room had not been cleaned. There were toenail clippings on the floor. We were promptly moved to another room that they cleaned immediately prior to our being in there. Then there was the pool. It was green and scummy. I called the corporate office and notified of conditions. I was informed the manager would handle all of these things and be in touch with me at the hotel. That did not happen. The pool did not get cleaned until the third day of our four day stay. On the last day, the fire alarm went off at 6:46am and the left side of the hotel was flooded from the broken sprinkler system. We were out of the room and car packed by 7:30am. The manager still had not arrived at the building, none of the staff knew what to do with the alarm or to inform anyone what was going on. I knew because the break was right outside my room in the hallway and my room was flooded immediately. When I left, the fire marshall was in the lobby telling the assistant manager that if the manager did not show immediately to do something he was shutting the building down.  Also, the yogurt for breakfast was over a week expired. We did not eat breakfast there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r494851037-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>494851037</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Would Not Recommend</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of its location. Upon check-in, the staff was friendly, and the front desk area seemed clean. When we got in our room, the carpet was dirty, the room smelled like smoke (which the cleaning crew tried to cover up with some flowery spray), and the bathroom floor was dirty. We would have moved to a different hotel, but all the hotels in the area were booked for the weekend. When we went down for breakfast (both mornings) the coffee was empty. I mentioned it to one of the front desk ladies and waited for about 20 minutes, no one ever replaced the coffee. We ended up going somewhere for breakfast both days. Also, the walls and floors are paper thin. You can hear EVERYTHING in the rooms next to you, in the hall, and can hear the people walking around above you. When your neighbors flush their toilet or turn their water on, the pipes make a knocking noise (this is not pleasant at 2 am).My suggestion is to go save your time &amp; money....go somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>CHELSEA M, Manager at Baymont by Wyndham Clute, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of its location. Upon check-in, the staff was friendly, and the front desk area seemed clean. When we got in our room, the carpet was dirty, the room smelled like smoke (which the cleaning crew tried to cover up with some flowery spray), and the bathroom floor was dirty. We would have moved to a different hotel, but all the hotels in the area were booked for the weekend. When we went down for breakfast (both mornings) the coffee was empty. I mentioned it to one of the front desk ladies and waited for about 20 minutes, no one ever replaced the coffee. We ended up going somewhere for breakfast both days. Also, the walls and floors are paper thin. You can hear EVERYTHING in the rooms next to you, in the hall, and can hear the people walking around above you. When your neighbors flush their toilet or turn their water on, the pipes make a knocking noise (this is not pleasant at 2 am).My suggestion is to go save your time &amp; money....go somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r483435444-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>483435444</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Decent quality for the money</t>
+  </si>
+  <si>
+    <t>Hotel was full and ran out of orange juice and eggs at breakfast. Had to leave for work before food was replenished.  AC unit is noisy, but did not report this for repair.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>CHELSEA M, Manager at Baymont by Wyndham Clute, responded to this reviewResponded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Hotel was full and ran out of orange juice and eggs at breakfast. Had to leave for work before food was replenished.  AC unit is noisy, but did not report this for repair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r479981928-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>479981928</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>CHELSEA M, Manager at Baymont by Wyndham Clute, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r477740352-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>477740352</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r461415130-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>461415130</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Good Quality for the price</t>
+  </si>
+  <si>
+    <t>While the room was comfortable, the breakfast wasn't anything to write home about. Basic continental breakfast with pre cooked food items. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>MICHELLE B, Manager at Baymont by Wyndham Clute, responded to this reviewResponded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>While the room was comfortable, the breakfast wasn't anything to write home about. Basic continental breakfast with pre cooked food items. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r457955829-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>457955829</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>MICHELLE B, Manager at Baymont by Wyndham Clute, responded to this reviewResponded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r447847551-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>447847551</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>Business trip Motel stay at Baymont Inn Suites was a pleasant,comfortable stay.</t>
+  </si>
+  <si>
+    <t>I would recommend Baymont Inn for business trips to anyone. Very clean and affordable. Will definitely return on future business and family get away in the near future. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>MICHELLE B, Front Office Manager at Baymont by Wyndham Clute, responded to this reviewResponded January 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2017</t>
+  </si>
+  <si>
+    <t>I would recommend Baymont Inn for business trips to anyone. Very clean and affordable. Will definitely return on future business and family get away in the near future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r433979283-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>433979283</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Angela F, Manager at Baymont by Wyndham Clute, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r431864809-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>431864809</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>Love the rooms..dont appriciate the lack of respect from other guests to the property since i go there a lot. Great suites just hope u dont rent after someone else trashes it. They come clean but dont really mop..our floor was still dirty in the kitchen. Also tv in the living area wouldnt work...bedroom did..but when traveling as a family very inconvient for kids. MoreShow less</t>
+  </si>
+  <si>
+    <t>Love the rooms..dont appriciate the lack of respect from other guests to the property since i go there a lot. Great suites just hope u dont rent after someone else trashes it. They come clean but dont really mop..our floor was still dirty in the kitchen. Also tv in the living area wouldnt work...bedroom did..but when traveling as a family very inconvient for kids. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r431566329-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>431566329</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>quiet stay</t>
+  </si>
+  <si>
+    <t>We got in lat and slept late so we missed breakfast; however the hotel met all our expectations. MoreShow less</t>
+  </si>
+  <si>
+    <t>We got in lat and slept late so we missed breakfast; however the hotel met all our expectations. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r420855040-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>420855040</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r412766065-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>412766065</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r411875828-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>411875828</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Not up to Wyndham standards</t>
+  </si>
+  <si>
+    <t>Initially they put me in a room that had beer cans all over the room and towels on bathroom floor and a filthy unmade bed.  When I went back to the front desk, the clerk acted like he knew nothing about it. He finally book me into an equivalent room.  The only other issue is the heavy smell of mold or mildew in the hallways and elevator.   MoreShow less</t>
+  </si>
+  <si>
+    <t>Initially they put me in a room that had beer cans all over the room and towels on bathroom floor and a filthy unmade bed.  When I went back to the front desk, the clerk acted like he knew nothing about it. He finally book me into an equivalent room.  The only other issue is the heavy smell of mold or mildew in the hallways and elevator.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r395828648-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>395828648</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Just What I Needed</t>
+  </si>
+  <si>
+    <t>This is just what I needed. I was in town to look for an apartment and sign my contract for a new job. Room smelled fresh and appeared clean. Staff was friendly and very helpful. In fact, staff recommended the apartment building I ended up leasing from! Breakfast was decent. A few rust stains on the sheets, but otherwise no complaints. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Tunisia46859, Manager at Baymont by Wyndham Clute, responded to this reviewResponded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2016</t>
+  </si>
+  <si>
+    <t>This is just what I needed. I was in town to look for an apartment and sign my contract for a new job. Room smelled fresh and appeared clean. Staff was friendly and very helpful. In fact, staff recommended the apartment building I ended up leasing from! Breakfast was decent. A few rust stains on the sheets, but otherwise no complaints. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r390217460-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>390217460</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Room Guarantee NOT Honored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We reserved a smoking room and had a confirmation. Guests with NO reservations were allowed to check-in to all of the smoking rooms. When we arrived for our 3 day stay, there were no smoking rooms. The hotel staff would not make them move. Also, we never were able to connect to the Internet over the course of 3 days. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r390166721-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>390166721</t>
+  </si>
+  <si>
+    <t>AWESOME TIME</t>
+  </si>
+  <si>
+    <t>Love it! Great staff, Spacious accommodation, great rates and well located closer to Surf Side Beach... The Sfatt are the ones that made that hotel so unique in character. The manager Ms. Tunisia Thompson made sure I was well pleased with my stay that I even extended my stay at hotel... For sure I will be back more often...now, that she gave me all the hits to find location, where to go, where to park, and the Best places to eat and shopping... She deserve a Thumbs UP...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r386658981-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>386658981</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>2 day stay</t>
+  </si>
+  <si>
+    <t>Very good hotel for the good price I paid Great breakfastNo problems what so everCleaning came by to collect towels each morning to ensure that they were cleanedAnd room was cleaned throughly while me and my family were out.Would book there again.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r385083346-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>385083346</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Lower than Expectations</t>
+  </si>
+  <si>
+    <t>I expected more out of this hotel. The room was outdated and less than I have come to expect from this level of hotel chain. The roach in the bathroom when I woke up in the morning didn't help matters.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r382976285-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>382976285</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed for a softball tournament </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty decent place to stay. Comfortable. Ac worked really good. Front desk person did everything including breakfast so refilling it was slow. But there was a lot of us. When her help finally came in one of the ladies slipped and fell. But like I said decent. Only slept in the rooms and showered. Good place for that. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r379960656-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>379960656</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r379027574-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>379027574</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r378671299-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>378671299</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r362883533-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>362883533</t>
+  </si>
+  <si>
+    <t>04/09/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r357683389-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>357683389</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Lake Jackson Getaway</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel numerous times in the past and it has always been a better than  good experience. The rooms are clean, comfortable and roomy. The staff is attentive, with maintenance always working on some type of project. The cleaning ladies do their job all over the hotel, not just the rooms. And Tunisia has the front desk under control, with a great knowledge of city attractions, events and restaurants. The only negative for me, I am an asthmatic, is that smoke from smokers tends to hang in the air in the hallways. Other than that, parking is safe, as I park my boat in the lot also. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel numerous times in the past and it has always been a better than  good experience. The rooms are clean, comfortable and roomy. The staff is attentive, with maintenance always working on some type of project. The cleaning ladies do their job all over the hotel, not just the rooms. And Tunisia has the front desk under control, with a great knowledge of city attractions, events and restaurants. The only negative for me, I am an asthmatic, is that smoke from smokers tends to hang in the air in the hallways. Other than that, parking is safe, as I park my boat in the lot also. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r353640469-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>353640469</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r329260337-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>329260337</t>
+  </si>
+  <si>
+    <t>11/26/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r328961383-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>328961383</t>
+  </si>
+  <si>
+    <t>11/25/2015</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>After many stays at this property, it is obvious that the current owners have made a sizable investment in repairs and updating.  We had a comfortable stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r325089581-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>325089581</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r315099959-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>315099959</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r308336575-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>308336575</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>We arrived on Friday night and left at 5:00AM Saturday...</t>
+  </si>
+  <si>
+    <t>We arrived on Friday night and left at 5:00AM Saturday.  Saturday evening, at 5:00PM, our room had not been cleaned.  We had to go to the front desk to get clean towels for the next morning!!!When we got home and checked our bill, we realized that we had not been given our AARP discount!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r307045399-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>307045399</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r301179222-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>301179222</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>The room was not clean. There were toenail clippings under...</t>
+  </si>
+  <si>
+    <t>The room was not clean. There were toenail clippings under the table by the bed. The chair looked like something had been spilled on it and never cleaned. The sheets had stains on them. The carpet had large stains. The handle to flush the toilet was broken off. I went to front desk, they apologized and offered to put me in another room. The have me a new room  key,I had to go back to desk 3 times because the key did not work.  She finally just have me a different room, again, and a new key.  The kids and I did not  go to sleep till after 1am. I was supposed to stay 2 nights but checked out the next morning.  Over all, the whole hotel did nit soar very clean. Also, pool was not  in service. MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was not clean. There were toenail clippings under the table by the bed. The chair looked like something had been spilled on it and never cleaned. The sheets had stains on them. The carpet had large stains. The handle to flush the toilet was broken off. I went to front desk, they apologized and offered to put me in another room. The have me a new room  key,I had to go back to desk 3 times because the key did not work.  She finally just have me a different room, again, and a new key.  The kids and I did not  go to sleep till after 1am. I was supposed to stay 2 nights but checked out the next morning.  Over all, the whole hotel did nit soar very clean. Also, pool was not  in service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r298287951-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>298287951</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Management B, Manager at Baymont by Wyndham Clute, responded to this reviewResponded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r298062806-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>298062806</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>excellent service</t>
+  </si>
+  <si>
+    <t>I am so pleased with the professionalism of the staff.  I booked the room online, and was not told about the pet deposit.  The manager was very accommodating to my individual needs and my concerns about the misinformation.  They accommodated my room requests, without hesitation.  They were professional, friendly, and extremely courteous. The hotel was immaculate!  I have nothing but positive feed back for the management and the quality of the hotel.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r293722290-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>293722290</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Arrived Friday for the Mosquito Festival! The staff at...</t>
+  </si>
+  <si>
+    <t>Arrived Friday for the Mosquito Festival! The staff at front desk were very, very, nice, room was nice, AC in our room was awesome!! only disappointment was the "green, murky" pool:-\  this is Texas, and it's hot! and not being able to use this amenity was a bummer, but we did find a nice beach over in Surfside to relax for the day on Saturday!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management B, Manager at Baymont by Wyndham Clute, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Arrived Friday for the Mosquito Festival! The staff at front desk were very, very, nice, room was nice, AC in our room was awesome!! only disappointment was the "green, murky" pool:-\  this is Texas, and it's hot! and not being able to use this amenity was a bummer, but we did find a nice beach over in Surfside to relax for the day on Saturday!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r293537909-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>293537909</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Management B, Manager at Baymont by Wyndham Clute, responded to this reviewResponded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r293282898-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>293282898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointed </t>
+  </si>
+  <si>
+    <t>When I walked in there was a sign that said they were helping another customer. I did ring the bell and called the phone number given on the sign. 25 minutes later they answered the phone. So sitting at the front desk waiting for that long wasn't a great start. As we walked in the room their was on Odor of old cigarettes trying to masked with spray deodorant. The bathroom still had cleaning supplies in it and the towels and not been changed out. I would not stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management B, Manager at Baymont by Wyndham Clute, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>When I walked in there was a sign that said they were helping another customer. I did ring the bell and called the phone number given on the sign. 25 minutes later they answered the phone. So sitting at the front desk waiting for that long wasn't a great start. As we walked in the room their was on Odor of old cigarettes trying to masked with spray deodorant. The bathroom still had cleaning supplies in it and the towels and not been changed out. I would not stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r289676327-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>289676327</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>baymont</t>
+  </si>
+  <si>
+    <t>Had a few problem with check in.  Staff was polite, but very disorganized.  The check out staff was much more organized and professional.  The bathtub would not drain and the cleaning service did not remove the previous occupants empty shampoo/conditioner/soap from the ridge around the top of the bathtub.  The room itself was clean and comfortable.  The breakfast area is situated right in front of the entrance door to the hotel so the smell permeates the entrance area of the hotel.  They need to install a door to the breakfast area and it would eliminate this problem.  All in all it was not a bad trip and the value was good for the location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a few problem with check in.  Staff was polite, but very disorganized.  The check out staff was much more organized and professional.  The bathtub would not drain and the cleaning service did not remove the previous occupants empty shampoo/conditioner/soap from the ridge around the top of the bathtub.  The room itself was clean and comfortable.  The breakfast area is situated right in front of the entrance door to the hotel so the smell permeates the entrance area of the hotel.  They need to install a door to the breakfast area and it would eliminate this problem.  All in all it was not a bad trip and the value was good for the location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r286372545-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>286372545</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>HORRIBLE customer service!</t>
+  </si>
+  <si>
+    <t>I have seriously NEVER experienced such lack of care by hotel "management". I checked in on 06/27/15 and checked out on 07/01/15. First off.. the lady who initially helped me was VERY accommodating and went out of her way to help me. If the experience stopped with her it would have been great. I made the ultimate mistake and left some important belongings (including car keys and check books) in my hotel room. I called and spoke to the same lady that helped me check in and she was very sweet and said she would send them to me (I provided my credit card information to cover costs). 
+Now... it is 07/07/15 and my stuff still hasn't been sent so I called and the "manager" Amber answered the phone. I explained why I was calling and to see if they had an issue with my credit card and she said "Ma'am we do not mail customer items to them if they leave it. You will have to come back and get them." I was shocked and said "I am in Dallas! How can I just come get them? Why can't you just ship them to me? Especially if I am paying for it to be shipped?" She said "It is not my fault that you forgot your stuff. We are not responsible for returning your items." Then hung up on me.
+So... I took a deep breath and called her...I have seriously NEVER experienced such lack of care by hotel "management". I checked in on 06/27/15 and checked out on 07/01/15. First off.. the lady who initially helped me was VERY accommodating and went out of her way to help me. If the experience stopped with her it would have been great. I made the ultimate mistake and left some important belongings (including car keys and check books) in my hotel room. I called and spoke to the same lady that helped me check in and she was very sweet and said she would send them to me (I provided my credit card information to cover costs). Now... it is 07/07/15 and my stuff still hasn't been sent so I called and the "manager" Amber answered the phone. I explained why I was calling and to see if they had an issue with my credit card and she said "Ma'am we do not mail customer items to them if they leave it. You will have to come back and get them." I was shocked and said "I am in Dallas! How can I just come get them? Why can't you just ship them to me? Especially if I am paying for it to be shipped?" She said "It is not my fault that you forgot your stuff. We are not responsible for returning your items." Then hung up on me.So... I took a deep breath and called her back. I told her I luckily have a coworker in the area for work and she is going to come by and pick it up. I said "You are the manager right? and your name is Amber?" She said "Yes." I said "Ok. How is this good customer service to not return your customers items to them that the left regardless of it being their fault? I will even go to fedex and pay/schedule the pick up if I need to". She said "Whatever ma'am its your fault for leaving them bye" THEN HUNG UP ON ME AGAIN!So then I call their customer care number and STAY ON HOLD FOR OVER 15 MINUTES and never spoke to anyone.Wyndham claims to be the global leader in hospitality... Not with this location.I will never stay here again and for some reason I feel like they do not care to keep my business. I will be visiting regularly for work and will stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I have seriously NEVER experienced such lack of care by hotel "management". I checked in on 06/27/15 and checked out on 07/01/15. First off.. the lady who initially helped me was VERY accommodating and went out of her way to help me. If the experience stopped with her it would have been great. I made the ultimate mistake and left some important belongings (including car keys and check books) in my hotel room. I called and spoke to the same lady that helped me check in and she was very sweet and said she would send them to me (I provided my credit card information to cover costs). 
+Now... it is 07/07/15 and my stuff still hasn't been sent so I called and the "manager" Amber answered the phone. I explained why I was calling and to see if they had an issue with my credit card and she said "Ma'am we do not mail customer items to them if they leave it. You will have to come back and get them." I was shocked and said "I am in Dallas! How can I just come get them? Why can't you just ship them to me? Especially if I am paying for it to be shipped?" She said "It is not my fault that you forgot your stuff. We are not responsible for returning your items." Then hung up on me.
+So... I took a deep breath and called her...I have seriously NEVER experienced such lack of care by hotel "management". I checked in on 06/27/15 and checked out on 07/01/15. First off.. the lady who initially helped me was VERY accommodating and went out of her way to help me. If the experience stopped with her it would have been great. I made the ultimate mistake and left some important belongings (including car keys and check books) in my hotel room. I called and spoke to the same lady that helped me check in and she was very sweet and said she would send them to me (I provided my credit card information to cover costs). Now... it is 07/07/15 and my stuff still hasn't been sent so I called and the "manager" Amber answered the phone. I explained why I was calling and to see if they had an issue with my credit card and she said "Ma'am we do not mail customer items to them if they leave it. You will have to come back and get them." I was shocked and said "I am in Dallas! How can I just come get them? Why can't you just ship them to me? Especially if I am paying for it to be shipped?" She said "It is not my fault that you forgot your stuff. We are not responsible for returning your items." Then hung up on me.So... I took a deep breath and called her back. I told her I luckily have a coworker in the area for work and she is going to come by and pick it up. I said "You are the manager right? and your name is Amber?" She said "Yes." I said "Ok. How is this good customer service to not return your customers items to them that the left regardless of it being their fault? I will even go to fedex and pay/schedule the pick up if I need to". She said "Whatever ma'am its your fault for leaving them bye" THEN HUNG UP ON ME AGAIN!So then I call their customer care number and STAY ON HOLD FOR OVER 15 MINUTES and never spoke to anyone.Wyndham claims to be the global leader in hospitality... Not with this location.I will never stay here again and for some reason I feel like they do not care to keep my business. I will be visiting regularly for work and will stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r285929472-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>285929472</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>SLIME in the Ice Machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beds were comfortable, AC kept the room cool. But, commode would not flush properly, the ice machine had slime, the exercise room was a joke (bike out of order, wt machine not functional, pool closed), breakfast tables dirty with no one around to wipe them off after use. I will not stay here again, </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r280719429-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>280719429</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r280216049-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>280216049</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r279902559-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>279902559</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Service sucks!</t>
+  </si>
+  <si>
+    <t>Employees rarely at the front desk; pool closed; no icemaker on second floor; ran out of food at breakfast, AC noisy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r278811832-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>278811832</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Disappointment from one year to the next....</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel about 6 times in the last couple of years for beach vacations. Usually very pleased, but this year we were pretty disappointed. Asked to move when got an unwanted smoking room..no rooms available....light in bathroom had to be turned on and off a couple of times before it would stay on...T.V. in living area would never work.... the front desk attendant came up to try to help as we were told there is no maintenance crew...the T.V. not working kind of negates the term "suite" since that room unusable without the T.V....we did have a friend who used the sleeper sofa but we had to ask for bedding and then go back again for a pillow...A.C. is very loud and the fan will not stay on all the time which would have helped with the terrible road traffic noise... every time we got back to the hotel we had to have our room keys reactivated which is very annoying when you are tired and hot from the beach and just want to get into your room instead of stand in the hall while your husband goes back down to the desk to get the cards fixed...will be going elsewhere from now on....MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel about 6 times in the last couple of years for beach vacations. Usually very pleased, but this year we were pretty disappointed. Asked to move when got an unwanted smoking room..no rooms available....light in bathroom had to be turned on and off a couple of times before it would stay on...T.V. in living area would never work.... the front desk attendant came up to try to help as we were told there is no maintenance crew...the T.V. not working kind of negates the term "suite" since that room unusable without the T.V....we did have a friend who used the sleeper sofa but we had to ask for bedding and then go back again for a pillow...A.C. is very loud and the fan will not stay on all the time which would have helped with the terrible road traffic noise... every time we got back to the hotel we had to have our room keys reactivated which is very annoying when you are tired and hot from the beach and just want to get into your room instead of stand in the hall while your husband goes back down to the desk to get the cards fixed...will be going elsewhere from now on....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r277554951-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>277554951</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>Our experience at this hotel was terrible!! We were in town for a softball tournament and had a block of 14 rooms booked. The incentive for the 7-9 year old girls playing ball all day was to be able to go to the pool, cool off and have a great time with friends. The pool was green. The man at the front desk told us that they hadn't had a maintenance man for a week. Very disappointing.  We had a room on the 3rd floor that had 3 tvs...2 of which didn't work. The pull out bed in my personal room had the sheet on it from the last people who stayed in the room. When I asked if it was customary for housekeeping to put a sheet on it, the front desk said no and then tried to change his story when I told him mine had the sheet from the people before.  The sheet had hair and crumbs in it. When I told him that I needed it changed IMMEDIATELY, he handed me a rolled up sheet and a bottle of disinfectant.  I asked for housekeeping and he told me that housekeeping there were 4 ladies but no one is at the hotel at night. At all. Ever.  We had to buy box fans for 2 rooms because the air conditioner didn't work.  One of our families went in their bathroom and it had used bars soap around...Our experience at this hotel was terrible!! We were in town for a softball tournament and had a block of 14 rooms booked. The incentive for the 7-9 year old girls playing ball all day was to be able to go to the pool, cool off and have a great time with friends. The pool was green. The man at the front desk told us that they hadn't had a maintenance man for a week. Very disappointing.  We had a room on the 3rd floor that had 3 tvs...2 of which didn't work. The pull out bed in my personal room had the sheet on it from the last people who stayed in the room. When I asked if it was customary for housekeeping to put a sheet on it, the front desk said no and then tried to change his story when I told him mine had the sheet from the people before.  The sheet had hair and crumbs in it. When I told him that I needed it changed IMMEDIATELY, he handed me a rolled up sheet and a bottle of disinfectant.  I asked for housekeeping and he told me that housekeeping there were 4 ladies but no one is at the hotel at night. At all. Ever.  We had to buy box fans for 2 rooms because the air conditioner didn't work.  One of our families went in their bathroom and it had used bars soap around the tub. The total ABSENSE of cleanliness and the rudeness of the staff needs to be known by anyone who considers staying at this establishment.  Why did we stay, you ask? We would have left this hotel to go stay somewhere else but the tournament that our children were playing in had 51 teams staying in the area and all other hotels were booked. I tried to get in contact with Amber, the manager numerous times but she would never return my phone call.  DO NOT STAY AT THIS HOTEL!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Our experience at this hotel was terrible!! We were in town for a softball tournament and had a block of 14 rooms booked. The incentive for the 7-9 year old girls playing ball all day was to be able to go to the pool, cool off and have a great time with friends. The pool was green. The man at the front desk told us that they hadn't had a maintenance man for a week. Very disappointing.  We had a room on the 3rd floor that had 3 tvs...2 of which didn't work. The pull out bed in my personal room had the sheet on it from the last people who stayed in the room. When I asked if it was customary for housekeeping to put a sheet on it, the front desk said no and then tried to change his story when I told him mine had the sheet from the people before.  The sheet had hair and crumbs in it. When I told him that I needed it changed IMMEDIATELY, he handed me a rolled up sheet and a bottle of disinfectant.  I asked for housekeeping and he told me that housekeeping there were 4 ladies but no one is at the hotel at night. At all. Ever.  We had to buy box fans for 2 rooms because the air conditioner didn't work.  One of our families went in their bathroom and it had used bars soap around...Our experience at this hotel was terrible!! We were in town for a softball tournament and had a block of 14 rooms booked. The incentive for the 7-9 year old girls playing ball all day was to be able to go to the pool, cool off and have a great time with friends. The pool was green. The man at the front desk told us that they hadn't had a maintenance man for a week. Very disappointing.  We had a room on the 3rd floor that had 3 tvs...2 of which didn't work. The pull out bed in my personal room had the sheet on it from the last people who stayed in the room. When I asked if it was customary for housekeeping to put a sheet on it, the front desk said no and then tried to change his story when I told him mine had the sheet from the people before.  The sheet had hair and crumbs in it. When I told him that I needed it changed IMMEDIATELY, he handed me a rolled up sheet and a bottle of disinfectant.  I asked for housekeeping and he told me that housekeeping there were 4 ladies but no one is at the hotel at night. At all. Ever.  We had to buy box fans for 2 rooms because the air conditioner didn't work.  One of our families went in their bathroom and it had used bars soap around the tub. The total ABSENSE of cleanliness and the rudeness of the staff needs to be known by anyone who considers staying at this establishment.  Why did we stay, you ask? We would have left this hotel to go stay somewhere else but the tournament that our children were playing in had 51 teams staying in the area and all other hotels were booked. I tried to get in contact with Amber, the manager numerous times but she would never return my phone call.  DO NOT STAY AT THIS HOTEL!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r274078355-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>274078355</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Is anyone listening to our request?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We called a week ahead of our stay. We asked for an acsessable room. My wife needs a room with a taller commode, easier bathroom to get around in. When we arrived, we were told there was not any acsessable rooms available. Did we reserve the room on the Internet? Why would this make any difference how the reservation was made? We were told such a room would be reserved for us and was not. It was too late for us to start hunting for another hotel. We had been traveling for close to 5hours and my wife needed to lay down and rest.     </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r269570758-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>269570758</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>The staff is very friendly and helpful, breakfast is the same thing every day, water down gravy and cold biscuits. My desk chair broke the second day of my stay and they were unable to accommodate a new chair for me.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r267784208-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>267784208</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>Did not get the room I booked</t>
+  </si>
+  <si>
+    <t>I booked a non smoking room with king size bed, bet instead I was given a room with two queen size beds and on the smoking floor, when I asked for the room I booked I was told that they didn't have one, the staff was very rude and I was forced to use the room because all the hotels were full, I could not get a good night sleep because the smoke odor on the hall, this was the first and last time I will use this hotel chain because I came home sick due to all the smoke odor, I have already warned my coleages.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r265887878-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>265887878</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>A Disappointment</t>
+  </si>
+  <si>
+    <t>We chose Baymont while visiting the area for a class reunion.  I reserved a king room, non-smoking.  On arrival we were told the only thing available was a double queen, smoking.  The beds were not the problem; the smoking room was the issue.  One has to wonder what the purpose of a reservation is if what was confirmed is not available.  The clerk at the counter did not bother with a smile, hello or any type of friendly greeting.  There was not even an apology for not having our specified accomodations.  We decided to stay because we were too tired to go searching and we made do with generous sprays of air freshener and burning a candle any time we were in the room.  My husband did say he heard an apology as we were walking away from the desk.  Some public relations training is definitely needed at this facility.  We've stayed in nicer establishments for less money.MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose Baymont while visiting the area for a class reunion.  I reserved a king room, non-smoking.  On arrival we were told the only thing available was a double queen, smoking.  The beds were not the problem; the smoking room was the issue.  One has to wonder what the purpose of a reservation is if what was confirmed is not available.  The clerk at the counter did not bother with a smile, hello or any type of friendly greeting.  There was not even an apology for not having our specified accomodations.  We decided to stay because we were too tired to go searching and we made do with generous sprays of air freshener and burning a candle any time we were in the room.  My husband did say he heard an apology as we were walking away from the desk.  Some public relations training is definitely needed at this facility.  We've stayed in nicer establishments for less money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r261792683-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>261792683</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r261300734-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>261300734</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Asked for a non-smoking room</t>
+  </si>
+  <si>
+    <t>When I booked my room, I requested a non-smoking room.  When I checked in and went to my room it was in the smoking section of the hotel. The room smelled like stale smoke.  I called the front desk and requested a non-smoking room.  They told me they didn't have any non-smoking rooms left.  I asked to speak to the manager. She wasn't on duty until the next morning.  So, I had to stay in the smoking room (yuk) for one night.  The next day I talked to the manager and she gave me a non-smoking room for the remainder of my stay. The rooms are average for a budget hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>When I booked my room, I requested a non-smoking room.  When I checked in and went to my room it was in the smoking section of the hotel. The room smelled like stale smoke.  I called the front desk and requested a non-smoking room.  They told me they didn't have any non-smoking rooms left.  I asked to speak to the manager. She wasn't on duty until the next morning.  So, I had to stay in the smoking room (yuk) for one night.  The next day I talked to the manager and she gave me a non-smoking room for the remainder of my stay. The rooms are average for a budget hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r260699021-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>260699021</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Nice and Dog Friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place was a great find in Clute. There are a lot of contractor working in the area so you are not going to find a better deal. Dog friendly, nice people at desk. Very accommodating and would come back again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r252820984-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>252820984</t>
+  </si>
+  <si>
+    <t>02/05/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r249835169-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>249835169</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r245694929-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>245694929</t>
+  </si>
+  <si>
+    <t>12/23/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel for the Price</t>
+  </si>
+  <si>
+    <t>We have been doing quite a bit of work in Freeport. Our office opened an account here. and we have been staying here quite a lot. The rooms are big, with a front room with a couch and TV and another room in the back with the bed, desk and a TV. The bathroom is in between the two. This has been nice as we could hang out in a room after work. Front desk staff was very nice. The cleaning staff did an OK job and didn't always replace shampoo and such. Location is convenient near the freeway. Never had breakfast but coffee was good.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r242158964-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>242158964</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>Needs improvement</t>
+  </si>
+  <si>
+    <t>The sheets were dirty when we arrived. Hair all over them you could tell they were not changed after the last guest. I called the front desk and the attendant came up and put fresh sheets on the bed.  Housekeeping needs to do a better job. The carpets need to be vacuumed in the room and the tub didn't look like it was cleaned.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r236916547-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>236916547</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>total contradiction</t>
+  </si>
+  <si>
+    <t>Hotel is nicely located, clean and well fitted out. Rating very goodStaff at check in, effecient and friendly.Internet in room a disaster only working intermittentlyBreakfast service very poor, neither coffee or scrambled eggs.Check in staff who fixed this very unfriendley</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r236414252-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>236414252</t>
+  </si>
+  <si>
+    <t>10/26/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r223602766-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>223602766</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Management B, Manager at Baymont by Wyndham Clute, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r221822958-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>221822958</t>
+  </si>
+  <si>
+    <t>08/14/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r221790779-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>221790779</t>
+  </si>
+  <si>
+    <t>Reservation not honored</t>
+  </si>
+  <si>
+    <t>I reserved two non-smoking double bed rooms. I got two rooms with King size beds. One room was a smoking room and it stunk. We had to go to the local store and buy some air freshener to make it tolerable. One room was not cleaned. Some folks in our party wore forced to sleep on the fold out sofa and it was extremely uncomfortable. Local staff was very apologetic and said that corporate is notorious for overbooking double rooms and overbooking in general. They are forced to turn people with confirmed reservations away sometimes. MoreShow less</t>
+  </si>
+  <si>
+    <t>I reserved two non-smoking double bed rooms. I got two rooms with King size beds. One room was a smoking room and it stunk. We had to go to the local store and buy some air freshener to make it tolerable. One room was not cleaned. Some folks in our party wore forced to sleep on the fold out sofa and it was extremely uncomfortable. Local staff was very apologetic and said that corporate is notorious for overbooking double rooms and overbooking in general. They are forced to turn people with confirmed reservations away sometimes. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r218534853-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>218534853</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Watch your valuables!!!</t>
+  </si>
+  <si>
+    <t>I stayed here 2 nights with a group of guys going deep sea fishing. From the beginning, the staff was totally incompetent. Our reservation was incorrect on # of beds needed. So, while we were out fishing all day, the staff decided to move our things from one room to another. My son had an Android tablet charging in the room. When we returned to the hotel, we found another guest in our room. So, we checked at the front desk and all our belongings were under the counter, MINUS the tablet. Either the cleaning people decided they wanted a new tablet, or it could have been stolen from under the front desk. The staff were NOT helpful at all. We filed a police report before leaving town, but we will probably never see it again. If I could give them a ZERO, I would. I will NEVER book at this chain again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I stayed here 2 nights with a group of guys going deep sea fishing. From the beginning, the staff was totally incompetent. Our reservation was incorrect on # of beds needed. So, while we were out fishing all day, the staff decided to move our things from one room to another. My son had an Android tablet charging in the room. When we returned to the hotel, we found another guest in our room. So, we checked at the front desk and all our belongings were under the counter, MINUS the tablet. Either the cleaning people decided they wanted a new tablet, or it could have been stolen from under the front desk. The staff were NOT helpful at all. We filed a police report before leaving town, but we will probably never see it again. If I could give them a ZERO, I would. I will NEVER book at this chain again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r218080796-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>218080796</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Bad Service!</t>
+  </si>
+  <si>
+    <t>Stayed here 7-24-2014 for 3 days. Never again !! Rude Rude Rude!! My daughter called two days prior to confirm reservation, then she walks in and the manager Lisa says "sorry your not in my system. You shouldnt of gone through Expedia!" Swore she was full then after 30 min pulled a room from someone else to give to my daughter!" Then they tried to tell me i was only booked for 2 days when i was suppose to be there for 3. First thing out of their mouths "Did you book through Expedia?" I said "NO I BOOKED THROUGH YALL!!" 3 other couples that we know of had the same problem. The rooms were clean but dirty if that makes sense. sheets smelled good but broke tile, broken tiolet seat, broken remote, and the dead bolt knob fell off when i turned it. Not to mention the carpets are in dire need of a shampooing! Did I mention I will never stay here again??MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here 7-24-2014 for 3 days. Never again !! Rude Rude Rude!! My daughter called two days prior to confirm reservation, then she walks in and the manager Lisa says "sorry your not in my system. You shouldnt of gone through Expedia!" Swore she was full then after 30 min pulled a room from someone else to give to my daughter!" Then they tried to tell me i was only booked for 2 days when i was suppose to be there for 3. First thing out of their mouths "Did you book through Expedia?" I said "NO I BOOKED THROUGH YALL!!" 3 other couples that we know of had the same problem. The rooms were clean but dirty if that makes sense. sheets smelled good but broke tile, broken tiolet seat, broken remote, and the dead bolt knob fell off when i turned it. Not to mention the carpets are in dire need of a shampooing! Did I mention I will never stay here again??More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r217804146-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>217804146</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Worst service ever</t>
+  </si>
+  <si>
+    <t>So I booked my room in advanced by 2 almost 3 months through Expedia. 2 days before our check In I called Expedia and the hotel to double check our reservation.  And when my husband and I showed up they  informed us that they had canceled our room without notice. So I tried to explain to them that we have had it booked for months and I had even talked to the employee at the hotel two days prior. Then the woman behind the desk "Lisa" told me she cancelled our room becuz they didn't have a room available. Didn't make sense at all. She was so rude and hateful saying she has no room for us at all even tho I made a reservation. I even showed her my confirmation email but she didn't care at all. Told me I wasn't in her computer. So after I gave her a piece of my mind an grabbed my things and hauled butt out to the parking lot. She came running out still trying to argue with me. Then finally said she has one room available. Ughhh horrible service. the breakfast sucked an the cleaning staff is very hateful. I do not recommend at all! There are so many other hotels down the road go somewhere else cuz its not worth the hassle. MoreShow less</t>
+  </si>
+  <si>
+    <t>So I booked my room in advanced by 2 almost 3 months through Expedia. 2 days before our check In I called Expedia and the hotel to double check our reservation.  And when my husband and I showed up they  informed us that they had canceled our room without notice. So I tried to explain to them that we have had it booked for months and I had even talked to the employee at the hotel two days prior. Then the woman behind the desk "Lisa" told me she cancelled our room becuz they didn't have a room available. Didn't make sense at all. She was so rude and hateful saying she has no room for us at all even tho I made a reservation. I even showed her my confirmation email but she didn't care at all. Told me I wasn't in her computer. So after I gave her a piece of my mind an grabbed my things and hauled butt out to the parking lot. She came running out still trying to argue with me. Then finally said she has one room available. Ughhh horrible service. the breakfast sucked an the cleaning staff is very hateful. I do not recommend at all! There are so many other hotels down the road go somewhere else cuz its not worth the hassle. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r214856341-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>214856341</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Nice Rooms - Lousy Customer Service at front desk.</t>
+  </si>
+  <si>
+    <t>We stayed here as we decided last minute to travel to Surfside for the 4th of July and this was one of the closest options being 8 miles from the beach. The room was a nice big suite with two TV's a fridge and clean. The breakfast buffet was ok but little room with only three tables for a large hotel. My issue and why I will not return is the owner and Lisa the manager. Three times I went to the front desk the last time to check out and either Lisa was fighting with someone or Ms. Lee the owner was yelling at someone even as I was standing there in front of them waiting on them to finish their rant which went on for several minutes. RUDE owner and HORRIBLE manager. They might have nice rooms but if you cant treat your employees or guests with respect you don't deserve my business.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here as we decided last minute to travel to Surfside for the 4th of July and this was one of the closest options being 8 miles from the beach. The room was a nice big suite with two TV's a fridge and clean. The breakfast buffet was ok but little room with only three tables for a large hotel. My issue and why I will not return is the owner and Lisa the manager. Three times I went to the front desk the last time to check out and either Lisa was fighting with someone or Ms. Lee the owner was yelling at someone even as I was standing there in front of them waiting on them to finish their rant which went on for several minutes. RUDE owner and HORRIBLE manager. They might have nice rooms but if you cant treat your employees or guests with respect you don't deserve my business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r214336753-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>214336753</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r212709927-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>212709927</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r212130263-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>212130263</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r211990738-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>211990738</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>Just a place to sleep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff is wonderful.  The breakfast was OK.  The room was old, shabby and dirty. Very little parking spaces, also.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r211972181-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>211972181</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r211416407-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>211416407</t>
+  </si>
+  <si>
+    <t>06/21/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r211069974-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>211069974</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r210795557-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>210795557</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Choose a hotel wisely</t>
+  </si>
+  <si>
+    <t>I would not recommend to anyone. The manager Lisa is beyond rude and disrespectful but the other front desk workers are very caring and helpful. Housekeepers do not clean good at all! Pool stays closed and nasty and nothing in the workout room works. You also have to go all the way to the 3rd floor for ice because first floor ice machine is broke. Find a different hotel. this one is not worth it at all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r208019553-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>208019553</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r206627272-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>206627272</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r206541657-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>206541657</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r199783394-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>199783394</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r199072797-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>199072797</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r198683336-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>198683336</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r196229164-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>196229164</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r186915960-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>186915960</t>
+  </si>
+  <si>
+    <t>12/06/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r185079188-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>185079188</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r176783553-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>176783553</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r167126608-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>167126608</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Our trip was a blessing and we enjoyed our stay! Thank you...</t>
+  </si>
+  <si>
+    <t>Our trip was a blessing and we enjoyed our stay! Thank you for a beautiful room and the wonderful service we were given! I pray that our visit nxt time will be no different but the same if not better! Thank you kindly again!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r165805519-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>165805519</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>Room was very clean, staff were very attentive to my needs, offered coffee on the fly, very good place to stay.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r155349556-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>155349556</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>Not so Great Experience</t>
+  </si>
+  <si>
+    <t>First, check in was easy, but when got to the room someone was still in it.  Luckly, they weren't at the time I opened the door, but if they had I could have been shot!!!!  Desk clerk had to go up and see that someone's stuff was still in the room instead of just giving me a different room.Next day the manager asked how things were and I told her of that experience and made mentio of the room number i was moved to and she said that someone else was in that room for the evening and I might have to change rooms.  I asked if my stuff was still there and she said she was not sure, so I went to go find out.  It had not been moved and I asked if I was going to have to move to a different room that I would just pack and leave!  She said I did not need to move.I will not stay at this hotel again.  I was on a company trip and they paid for it and I think they should be given a full refund!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>First, check in was easy, but when got to the room someone was still in it.  Luckly, they weren't at the time I opened the door, but if they had I could have been shot!!!!  Desk clerk had to go up and see that someone's stuff was still in the room instead of just giving me a different room.Next day the manager asked how things were and I told her of that experience and made mentio of the room number i was moved to and she said that someone else was in that room for the evening and I might have to change rooms.  I asked if my stuff was still there and she said she was not sure, so I went to go find out.  It had not been moved and I asked if I was going to have to move to a different room that I would just pack and leave!  She said I did not need to move.I will not stay at this hotel again.  I was on a company trip and they paid for it and I think they should be given a full refund!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r153794907-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>153794907</t>
+  </si>
+  <si>
+    <t>03/05/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r153548932-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>153548932</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r146109297-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>146109297</t>
+  </si>
+  <si>
+    <t>11/24/2012</t>
+  </si>
+  <si>
+    <t>Very nice stay.  I'll stay here again.</t>
+  </si>
+  <si>
+    <t>My first stay at this hotel and my first Baymont Suites in many years.  The room was clean and comfortable though my daughter said she saw some ants in the bathroom.  This is not uncommon in southeast Texas.  The lady at the front desk was very friendly and brought bedding to our room for the sleeper sofa.  Most hotels usually ask you to come get it at the front desk when you ask very late at night.  She didn't and I was most impressed.  The only downside was the breakfast.  It wasn't bad, and it was free, but I just wish the quality had been a little better.  But it was no worse than most hotel breakfasts I have had at other places.  There is a Whataburger a block down the street so I could have gone there as well.  I'll certainly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>My first stay at this hotel and my first Baymont Suites in many years.  The room was clean and comfortable though my daughter said she saw some ants in the bathroom.  This is not uncommon in southeast Texas.  The lady at the front desk was very friendly and brought bedding to our room for the sleeper sofa.  Most hotels usually ask you to come get it at the front desk when you ask very late at night.  She didn't and I was most impressed.  The only downside was the breakfast.  It wasn't bad, and it was free, but I just wish the quality had been a little better.  But it was no worse than most hotel breakfasts I have had at other places.  There is a Whataburger a block down the street so I could have gone there as well.  I'll certainly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d268282-r145257999-Baymont_by_Wyndham_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>145257999</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>Comfortable and quiet</t>
+  </si>
+  <si>
+    <t>Formerly Best Western. Located on hotel row just off the highway and minutes away from many attractions in the Clute/Lake Jackson area. The grounds are well-maintained and attractive. My king suite on the third floor had a nice sitting area with TV, foldout couch, and easy chair. The bedroom was large enough for a very comfortable king bed, nice work desk, and a chest with flat-screen TV on top. The free internet was fast. Bathroom was large and very clean, as was the whole suite. I noted that the bathtub can be slippery and the hot water is Really Hot. Nice, full hot breakfast including eggs and sausage, biscuits and gravy, ceral, pastries, waffles, fruit, etc. Breakfast area is quite small with only 4 small tables. This is a dog-friendly hotel, but the rooms are so quiet, I never heard barking except in the hall. My bed was so comfortable, and the room so quiet, that I overslept my wakeup time. Recommended  for a comfortable, quiet nights' stay at a reasonable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Formerly Best Western. Located on hotel row just off the highway and minutes away from many attractions in the Clute/Lake Jackson area. The grounds are well-maintained and attractive. My king suite on the third floor had a nice sitting area with TV, foldout couch, and easy chair. The bedroom was large enough for a very comfortable king bed, nice work desk, and a chest with flat-screen TV on top. The free internet was fast. Bathroom was large and very clean, as was the whole suite. I noted that the bathtub can be slippery and the hot water is Really Hot. Nice, full hot breakfast including eggs and sausage, biscuits and gravy, ceral, pastries, waffles, fruit, etc. Breakfast area is quite small with only 4 small tables. This is a dog-friendly hotel, but the rooms are so quiet, I never heard barking except in the hall. My bed was so comfortable, and the room so quiet, that I overslept my wakeup time. Recommended  for a comfortable, quiet nights' stay at a reasonable price.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2228,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2260,7016 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>114</v>
+      </c>
+      <c r="X12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>114</v>
+      </c>
+      <c r="X13" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>133</v>
+      </c>
+      <c r="X15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>133</v>
+      </c>
+      <c r="X16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>158</v>
+      </c>
+      <c r="X19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>167</v>
+      </c>
+      <c r="X20" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>174</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>175</v>
+      </c>
+      <c r="X21" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>186</v>
+      </c>
+      <c r="X23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>138</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>192</v>
+      </c>
+      <c r="X24" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>199</v>
+      </c>
+      <c r="O25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>200</v>
+      </c>
+      <c r="X25" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s">
+        <v>138</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>207</v>
+      </c>
+      <c r="X26" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" t="s">
+        <v>212</v>
+      </c>
+      <c r="L27" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>206</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>207</v>
+      </c>
+      <c r="X27" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>206</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>207</v>
+      </c>
+      <c r="X28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s">
+        <v>138</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>224</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>207</v>
+      </c>
+      <c r="X29" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s">
+        <v>138</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>228</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>207</v>
+      </c>
+      <c r="X30" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>230</v>
+      </c>
+      <c r="J31" t="s">
+        <v>231</v>
+      </c>
+      <c r="K31" t="s">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s">
+        <v>233</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>228</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>207</v>
+      </c>
+      <c r="X31" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>236</v>
+      </c>
+      <c r="J32" t="s">
+        <v>237</v>
+      </c>
+      <c r="K32" t="s">
+        <v>238</v>
+      </c>
+      <c r="L32" t="s">
+        <v>239</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>240</v>
+      </c>
+      <c r="O32" t="s">
+        <v>64</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>241</v>
+      </c>
+      <c r="X32" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" t="s">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>240</v>
+      </c>
+      <c r="O33" t="s">
+        <v>87</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>250</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s">
+        <v>251</v>
+      </c>
+      <c r="L34" t="s">
+        <v>252</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>240</v>
+      </c>
+      <c r="O34" t="s">
+        <v>174</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" t="s">
+        <v>256</v>
+      </c>
+      <c r="L35" t="s">
+        <v>257</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" t="s">
+        <v>262</v>
+      </c>
+      <c r="L36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>258</v>
+      </c>
+      <c r="O36" t="s">
+        <v>64</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>265</v>
+      </c>
+      <c r="J37" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" t="s">
+        <v>267</v>
+      </c>
+      <c r="L37" t="s">
+        <v>268</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>269</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>271</v>
+      </c>
+      <c r="J38" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>258</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>274</v>
+      </c>
+      <c r="J39" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>269</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" t="s">
+        <v>278</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s">
+        <v>138</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>269</v>
+      </c>
+      <c r="O40" t="s">
+        <v>279</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>281</v>
+      </c>
+      <c r="J41" t="s">
+        <v>282</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>283</v>
+      </c>
+      <c r="O41" t="s">
+        <v>87</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>285</v>
+      </c>
+      <c r="J42" t="s">
+        <v>286</v>
+      </c>
+      <c r="K42" t="s">
+        <v>287</v>
+      </c>
+      <c r="L42" t="s">
+        <v>288</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>289</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>292</v>
+      </c>
+      <c r="J43" t="s">
+        <v>293</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>289</v>
+      </c>
+      <c r="O43" t="s">
+        <v>279</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>294</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>295</v>
+      </c>
+      <c r="J44" t="s">
+        <v>296</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>297</v>
+      </c>
+      <c r="O44" t="s">
+        <v>64</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>298</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>299</v>
+      </c>
+      <c r="J45" t="s">
+        <v>300</v>
+      </c>
+      <c r="K45" t="s">
+        <v>301</v>
+      </c>
+      <c r="L45" t="s">
+        <v>302</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>297</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>303</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>304</v>
+      </c>
+      <c r="J46" t="s">
+        <v>305</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>297</v>
+      </c>
+      <c r="O46" t="s">
+        <v>64</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>306</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>307</v>
+      </c>
+      <c r="J47" t="s">
+        <v>308</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>309</v>
+      </c>
+      <c r="O47" t="s">
+        <v>87</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>310</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>311</v>
+      </c>
+      <c r="J48" t="s">
+        <v>312</v>
+      </c>
+      <c r="K48" t="s">
+        <v>313</v>
+      </c>
+      <c r="L48" t="s">
+        <v>314</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>309</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>315</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>316</v>
+      </c>
+      <c r="J49" t="s">
+        <v>317</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>318</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>319</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>320</v>
+      </c>
+      <c r="J50" t="s">
+        <v>321</v>
+      </c>
+      <c r="K50" t="s">
+        <v>322</v>
+      </c>
+      <c r="L50" t="s">
+        <v>323</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>318</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>325</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>326</v>
+      </c>
+      <c r="J51" t="s">
+        <v>327</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s">
+        <v>138</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>318</v>
+      </c>
+      <c r="O51" t="s">
+        <v>87</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>328</v>
+      </c>
+      <c r="X51" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>330</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>331</v>
+      </c>
+      <c r="J52" t="s">
+        <v>332</v>
+      </c>
+      <c r="K52" t="s">
+        <v>333</v>
+      </c>
+      <c r="L52" t="s">
+        <v>334</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>335</v>
+      </c>
+      <c r="O52" t="s">
+        <v>174</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>336</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>337</v>
+      </c>
+      <c r="J53" t="s">
+        <v>338</v>
+      </c>
+      <c r="K53" t="s">
+        <v>339</v>
+      </c>
+      <c r="L53" t="s">
+        <v>340</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>335</v>
+      </c>
+      <c r="O53" t="s">
+        <v>279</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>341</v>
+      </c>
+      <c r="X53" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>344</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>345</v>
+      </c>
+      <c r="J54" t="s">
+        <v>346</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s">
+        <v>138</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>335</v>
+      </c>
+      <c r="O54" t="s">
+        <v>87</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>347</v>
+      </c>
+      <c r="X54" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>349</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>350</v>
+      </c>
+      <c r="J55" t="s">
+        <v>346</v>
+      </c>
+      <c r="K55" t="s">
+        <v>351</v>
+      </c>
+      <c r="L55" t="s">
+        <v>352</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>335</v>
+      </c>
+      <c r="O55" t="s">
+        <v>87</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>353</v>
+      </c>
+      <c r="X55" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>356</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>357</v>
+      </c>
+      <c r="J56" t="s">
+        <v>358</v>
+      </c>
+      <c r="K56" t="s">
+        <v>359</v>
+      </c>
+      <c r="L56" t="s">
+        <v>360</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>335</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>362</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>363</v>
+      </c>
+      <c r="J57" t="s">
+        <v>364</v>
+      </c>
+      <c r="K57" t="s">
+        <v>365</v>
+      </c>
+      <c r="L57" t="s">
+        <v>366</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>367</v>
+      </c>
+      <c r="O57" t="s">
+        <v>64</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>369</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>370</v>
+      </c>
+      <c r="J58" t="s">
+        <v>371</v>
+      </c>
+      <c r="K58" t="s">
+        <v>372</v>
+      </c>
+      <c r="L58" t="s">
+        <v>373</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>335</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>374</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>375</v>
+      </c>
+      <c r="J59" t="s">
+        <v>376</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s">
+        <v>138</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>367</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>377</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>378</v>
+      </c>
+      <c r="J60" t="s">
+        <v>379</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>367</v>
+      </c>
+      <c r="O60" t="s">
+        <v>64</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>380</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>381</v>
+      </c>
+      <c r="J61" t="s">
+        <v>382</v>
+      </c>
+      <c r="K61" t="s">
+        <v>383</v>
+      </c>
+      <c r="L61" t="s">
+        <v>384</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>367</v>
+      </c>
+      <c r="O61" t="s">
+        <v>87</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>385</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>386</v>
+      </c>
+      <c r="J62" t="s">
+        <v>387</v>
+      </c>
+      <c r="K62" t="s">
+        <v>388</v>
+      </c>
+      <c r="L62" t="s">
+        <v>389</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>367</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>391</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>392</v>
+      </c>
+      <c r="J63" t="s">
+        <v>393</v>
+      </c>
+      <c r="K63" t="s">
+        <v>394</v>
+      </c>
+      <c r="L63" t="s">
+        <v>395</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>396</v>
+      </c>
+      <c r="O63" t="s">
+        <v>279</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>398</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>399</v>
+      </c>
+      <c r="J64" t="s">
+        <v>400</v>
+      </c>
+      <c r="K64" t="s">
+        <v>401</v>
+      </c>
+      <c r="L64" t="s">
+        <v>402</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>396</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>403</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>404</v>
+      </c>
+      <c r="J65" t="s">
+        <v>405</v>
+      </c>
+      <c r="K65" t="s">
+        <v>212</v>
+      </c>
+      <c r="L65" t="s">
+        <v>406</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>407</v>
+      </c>
+      <c r="O65" t="s">
+        <v>64</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>408</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>409</v>
+      </c>
+      <c r="J66" t="s">
+        <v>410</v>
+      </c>
+      <c r="K66" t="s">
+        <v>411</v>
+      </c>
+      <c r="L66" t="s">
+        <v>412</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>407</v>
+      </c>
+      <c r="O66" t="s">
+        <v>64</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>413</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>414</v>
+      </c>
+      <c r="J67" t="s">
+        <v>415</v>
+      </c>
+      <c r="K67" t="s">
+        <v>416</v>
+      </c>
+      <c r="L67" t="s">
+        <v>417</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>407</v>
+      </c>
+      <c r="O67" t="s">
+        <v>279</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>419</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>420</v>
+      </c>
+      <c r="J68" t="s">
+        <v>421</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>422</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>423</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>424</v>
+      </c>
+      <c r="J69" t="s">
+        <v>425</v>
+      </c>
+      <c r="K69" t="s">
+        <v>426</v>
+      </c>
+      <c r="L69" t="s">
+        <v>427</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>422</v>
+      </c>
+      <c r="O69" t="s">
+        <v>64</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>429</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>430</v>
+      </c>
+      <c r="J70" t="s">
+        <v>431</v>
+      </c>
+      <c r="K70" t="s">
+        <v>432</v>
+      </c>
+      <c r="L70" t="s">
+        <v>433</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>422</v>
+      </c>
+      <c r="O70" t="s">
+        <v>87</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>434</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>435</v>
+      </c>
+      <c r="J71" t="s">
+        <v>436</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s">
+        <v>138</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>437</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>438</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>439</v>
+      </c>
+      <c r="J72" t="s">
+        <v>440</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>441</v>
+      </c>
+      <c r="O72" t="s">
+        <v>64</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>442</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>443</v>
+      </c>
+      <c r="J73" t="s">
+        <v>444</v>
+      </c>
+      <c r="K73" t="s">
+        <v>445</v>
+      </c>
+      <c r="L73" t="s">
+        <v>446</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>447</v>
+      </c>
+      <c r="O73" t="s">
+        <v>64</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>448</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>449</v>
+      </c>
+      <c r="J74" t="s">
+        <v>450</v>
+      </c>
+      <c r="K74" t="s">
+        <v>451</v>
+      </c>
+      <c r="L74" t="s">
+        <v>452</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>453</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>454</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>455</v>
+      </c>
+      <c r="J75" t="s">
+        <v>456</v>
+      </c>
+      <c r="K75" t="s">
+        <v>457</v>
+      </c>
+      <c r="L75" t="s">
+        <v>458</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>459</v>
+      </c>
+      <c r="O75" t="s">
+        <v>87</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>460</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>461</v>
+      </c>
+      <c r="J76" t="s">
+        <v>462</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s">
+        <v>138</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>459</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>463</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>464</v>
+      </c>
+      <c r="J77" t="s">
+        <v>465</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s">
+        <v>138</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>466</v>
+      </c>
+      <c r="O77" t="s">
+        <v>64</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>467</v>
+      </c>
+      <c r="X77" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>469</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>470</v>
+      </c>
+      <c r="J78" t="s">
+        <v>471</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s">
+        <v>138</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>466</v>
+      </c>
+      <c r="O78" t="s">
+        <v>87</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>467</v>
+      </c>
+      <c r="X78" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>472</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>473</v>
+      </c>
+      <c r="J79" t="s">
+        <v>471</v>
+      </c>
+      <c r="K79" t="s">
+        <v>474</v>
+      </c>
+      <c r="L79" t="s">
+        <v>475</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>466</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>467</v>
+      </c>
+      <c r="X79" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>477</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>478</v>
+      </c>
+      <c r="J80" t="s">
+        <v>479</v>
+      </c>
+      <c r="K80" t="s">
+        <v>480</v>
+      </c>
+      <c r="L80" t="s">
+        <v>481</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>482</v>
+      </c>
+      <c r="O80" t="s">
+        <v>279</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>467</v>
+      </c>
+      <c r="X80" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>484</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>485</v>
+      </c>
+      <c r="J81" t="s">
+        <v>486</v>
+      </c>
+      <c r="K81" t="s">
+        <v>487</v>
+      </c>
+      <c r="L81" t="s">
+        <v>488</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>482</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>467</v>
+      </c>
+      <c r="X81" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>490</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>491</v>
+      </c>
+      <c r="J82" t="s">
+        <v>492</v>
+      </c>
+      <c r="K82" t="s">
+        <v>493</v>
+      </c>
+      <c r="L82" t="s">
+        <v>494</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>467</v>
+      </c>
+      <c r="X82" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>496</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>497</v>
+      </c>
+      <c r="J83" t="s">
+        <v>498</v>
+      </c>
+      <c r="K83" t="s">
+        <v>499</v>
+      </c>
+      <c r="L83" t="s">
+        <v>500</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>482</v>
+      </c>
+      <c r="O83" t="s">
+        <v>87</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>502</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>503</v>
+      </c>
+      <c r="J84" t="s">
+        <v>504</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s">
+        <v>138</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>482</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>505</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>506</v>
+      </c>
+      <c r="J85" t="s">
+        <v>507</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>508</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>509</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>510</v>
+      </c>
+      <c r="J86" t="s">
+        <v>511</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s"/>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>512</v>
+      </c>
+      <c r="O86" t="s">
+        <v>64</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>513</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>514</v>
+      </c>
+      <c r="J87" t="s">
+        <v>515</v>
+      </c>
+      <c r="K87" t="s">
+        <v>516</v>
+      </c>
+      <c r="L87" t="s">
+        <v>517</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>508</v>
+      </c>
+      <c r="O87" t="s">
+        <v>64</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>518</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>519</v>
+      </c>
+      <c r="J88" t="s">
+        <v>515</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s"/>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>508</v>
+      </c>
+      <c r="O88" t="s">
+        <v>52</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>520</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>521</v>
+      </c>
+      <c r="J89" t="s">
+        <v>522</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>508</v>
+      </c>
+      <c r="O89" t="s">
+        <v>279</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>523</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>524</v>
+      </c>
+      <c r="J90" t="s">
+        <v>525</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>508</v>
+      </c>
+      <c r="O90" t="s">
+        <v>174</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>526</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>527</v>
+      </c>
+      <c r="J91" t="s">
+        <v>528</v>
+      </c>
+      <c r="K91" t="s">
+        <v>529</v>
+      </c>
+      <c r="L91" t="s">
+        <v>530</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>508</v>
+      </c>
+      <c r="O91" t="s">
+        <v>64</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>531</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>532</v>
+      </c>
+      <c r="J92" t="s">
+        <v>533</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>534</v>
+      </c>
+      <c r="O92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>535</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>536</v>
+      </c>
+      <c r="J93" t="s">
+        <v>537</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>534</v>
+      </c>
+      <c r="O93" t="s">
+        <v>64</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>538</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>539</v>
+      </c>
+      <c r="J94" t="s">
+        <v>540</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>534</v>
+      </c>
+      <c r="O94" t="s">
+        <v>87</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>541</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>542</v>
+      </c>
+      <c r="J95" t="s">
+        <v>543</v>
+      </c>
+      <c r="K95" t="s"/>
+      <c r="L95" t="s"/>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>544</v>
+      </c>
+      <c r="O95" t="s">
+        <v>52</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>545</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>546</v>
+      </c>
+      <c r="J96" t="s">
+        <v>547</v>
+      </c>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s"/>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>544</v>
+      </c>
+      <c r="O96" t="s">
+        <v>64</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>548</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>549</v>
+      </c>
+      <c r="J97" t="s">
+        <v>550</v>
+      </c>
+      <c r="K97" t="s"/>
+      <c r="L97" t="s"/>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>544</v>
+      </c>
+      <c r="O97" t="s">
+        <v>52</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>551</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>552</v>
+      </c>
+      <c r="J98" t="s">
+        <v>553</v>
+      </c>
+      <c r="K98" t="s"/>
+      <c r="L98" t="s">
+        <v>138</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>554</v>
+      </c>
+      <c r="O98" t="s">
+        <v>64</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>2</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>2</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>555</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>556</v>
+      </c>
+      <c r="J99" t="s">
+        <v>557</v>
+      </c>
+      <c r="K99" t="s"/>
+      <c r="L99" t="s"/>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>558</v>
+      </c>
+      <c r="O99" t="s">
+        <v>52</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>559</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>560</v>
+      </c>
+      <c r="J100" t="s">
+        <v>561</v>
+      </c>
+      <c r="K100" t="s"/>
+      <c r="L100" t="s"/>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>558</v>
+      </c>
+      <c r="O100" t="s">
+        <v>64</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>562</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>563</v>
+      </c>
+      <c r="J101" t="s">
+        <v>564</v>
+      </c>
+      <c r="K101" t="s"/>
+      <c r="L101" t="s"/>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>565</v>
+      </c>
+      <c r="O101" t="s">
+        <v>279</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>566</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>567</v>
+      </c>
+      <c r="J102" t="s">
+        <v>568</v>
+      </c>
+      <c r="K102" t="s">
+        <v>569</v>
+      </c>
+      <c r="L102" t="s">
+        <v>570</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>571</v>
+      </c>
+      <c r="O102" t="s">
+        <v>52</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>572</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>573</v>
+      </c>
+      <c r="J103" t="s">
+        <v>574</v>
+      </c>
+      <c r="K103" t="s">
+        <v>575</v>
+      </c>
+      <c r="L103" t="s">
+        <v>576</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>577</v>
+      </c>
+      <c r="O103" t="s">
+        <v>174</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s">
+        <v>578</v>
+      </c>
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>579</v>
+      </c>
+      <c r="J104" t="s">
+        <v>580</v>
+      </c>
+      <c r="K104" t="s">
+        <v>581</v>
+      </c>
+      <c r="L104" t="s">
+        <v>582</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="s">
+        <v>583</v>
+      </c>
+      <c r="O104" t="s">
+        <v>64</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>3</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
+        <v>585</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>586</v>
+      </c>
+      <c r="J105" t="s">
+        <v>587</v>
+      </c>
+      <c r="K105" t="s"/>
+      <c r="L105" t="s"/>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>583</v>
+      </c>
+      <c r="O105" t="s">
+        <v>52</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" t="s">
+        <v>588</v>
+      </c>
+      <c r="G106" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s">
+        <v>46</v>
+      </c>
+      <c r="I106" t="s">
+        <v>589</v>
+      </c>
+      <c r="J106" t="s">
+        <v>590</v>
+      </c>
+      <c r="K106" t="s"/>
+      <c r="L106" t="s"/>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>591</v>
+      </c>
+      <c r="O106" t="s">
+        <v>64</v>
+      </c>
+      <c r="P106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s">
+        <v>592</v>
+      </c>
+      <c r="G107" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" t="s">
+        <v>593</v>
+      </c>
+      <c r="J107" t="s">
+        <v>594</v>
+      </c>
+      <c r="K107" t="s">
+        <v>595</v>
+      </c>
+      <c r="L107" t="s">
+        <v>596</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>597</v>
+      </c>
+      <c r="O107" t="s">
+        <v>52</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>48794</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s">
+        <v>599</v>
+      </c>
+      <c r="G108" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" t="s">
+        <v>600</v>
+      </c>
+      <c r="J108" t="s">
+        <v>601</v>
+      </c>
+      <c r="K108" t="s">
+        <v>602</v>
+      </c>
+      <c r="L108" t="s">
+        <v>603</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>597</v>
+      </c>
+      <c r="O108" t="s">
+        <v>174</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
